--- a/data/output/FV2410_FV2404/UTILMD/55010.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55010.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2025" uniqueCount="207">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2046" uniqueCount="207">
+  <si>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -743,6 +743,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U90" totalsRowShown="0">
+  <autoFilter ref="A1:U90"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2404"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="3" name="Segment_FV2404"/>
+    <tableColumn id="4" name="Datenelement_FV2404"/>
+    <tableColumn id="5" name="Segment ID_FV2404"/>
+    <tableColumn id="6" name="Code_FV2404"/>
+    <tableColumn id="7" name="Qualifier_FV2404"/>
+    <tableColumn id="8" name="Beschreibung_FV2404"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="10" name="Bedingung_FV2404"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2410"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="14" name="Segment_FV2410"/>
+    <tableColumn id="15" name="Datenelement_FV2410"/>
+    <tableColumn id="16" name="Segment ID_FV2410"/>
+    <tableColumn id="17" name="Code_FV2410"/>
+    <tableColumn id="18" name="Qualifier_FV2410"/>
+    <tableColumn id="19" name="Beschreibung_FV2410"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="21" name="Bedingung_FV2410"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1032,7 +1062,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5417,5 +5450,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2410_FV2404/UTILMD/55010.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55010.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2497" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="294">
   <si>
     <t>#</t>
   </si>
@@ -640,9 +640,6 @@
     <t>NEU</t>
   </si>
   <si>
-    <t>ÄNDERUNG</t>
-  </si>
-  <si>
     <t>ZD2</t>
   </si>
   <si>
@@ -911,7 +908,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -931,14 +928,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF7AAB8A"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFB8860B"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -991,7 +980,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1013,9 +1002,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1434,7 +1420,7 @@
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>22</v>
@@ -1476,7 +1462,7 @@
     </row>
     <row r="3" spans="1:22">
       <c r="A3" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
@@ -1526,7 +1512,7 @@
     </row>
     <row r="4" spans="1:22">
       <c r="A4" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>22</v>
@@ -1580,7 +1566,7 @@
     </row>
     <row r="5" spans="1:22">
       <c r="A5" s="5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
@@ -1634,7 +1620,7 @@
     </row>
     <row r="6" spans="1:22">
       <c r="A6" s="5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
@@ -1688,7 +1674,7 @@
     </row>
     <row r="7" spans="1:22">
       <c r="A7" s="5" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>22</v>
@@ -1796,7 +1782,7 @@
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>23</v>
@@ -1892,7 +1878,7 @@
     </row>
     <row r="11" spans="1:22">
       <c r="A11" s="5" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>23</v>
@@ -1942,7 +1928,7 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>24</v>
@@ -1984,7 +1970,7 @@
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="5" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>24</v>
@@ -2038,7 +2024,7 @@
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>24</v>
@@ -2092,7 +2078,7 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>24</v>
@@ -2146,7 +2132,7 @@
     </row>
     <row r="16" spans="1:22">
       <c r="A16" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
@@ -2184,7 +2170,7 @@
     </row>
     <row r="17" spans="1:22">
       <c r="A17" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>25</v>
@@ -2230,7 +2216,7 @@
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>25</v>
@@ -2288,7 +2274,7 @@
     </row>
     <row r="19" spans="1:22">
       <c r="A19" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>25</v>
@@ -2342,7 +2328,7 @@
     </row>
     <row r="20" spans="1:22">
       <c r="A20" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>25</v>
@@ -2400,7 +2386,7 @@
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>25</v>
@@ -2454,7 +2440,7 @@
     </row>
     <row r="22" spans="1:22">
       <c r="A22" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>26</v>
@@ -2492,7 +2478,7 @@
     </row>
     <row r="23" spans="1:22">
       <c r="A23" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>26</v>
@@ -2538,7 +2524,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>26</v>
@@ -2650,7 +2636,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>27</v>
@@ -2696,7 +2682,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>27</v>
@@ -2754,7 +2740,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>27</v>
@@ -2812,7 +2798,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>27</v>
@@ -2866,7 +2852,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>27</v>
@@ -2920,7 +2906,7 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>27</v>
@@ -2974,7 +2960,7 @@
     </row>
     <row r="32" spans="1:22">
       <c r="A32" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>27</v>
@@ -3028,7 +3014,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>28</v>
@@ -3066,7 +3052,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>28</v>
@@ -3112,7 +3098,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>28</v>
@@ -3170,7 +3156,7 @@
     </row>
     <row r="36" spans="1:22">
       <c r="A36" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>28</v>
@@ -3224,7 +3210,7 @@
     </row>
     <row r="37" spans="1:22">
       <c r="A37" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>28</v>
@@ -3282,7 +3268,7 @@
     </row>
     <row r="38" spans="1:22">
       <c r="A38" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>28</v>
@@ -3336,7 +3322,7 @@
     </row>
     <row r="39" spans="1:22">
       <c r="A39" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>29</v>
@@ -3374,7 +3360,7 @@
     </row>
     <row r="40" spans="1:22">
       <c r="A40" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>29</v>
@@ -3420,7 +3406,7 @@
     </row>
     <row r="41" spans="1:22">
       <c r="A41" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>29</v>
@@ -3478,7 +3464,7 @@
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>29</v>
@@ -3532,7 +3518,7 @@
     </row>
     <row r="43" spans="1:22">
       <c r="A43" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>30</v>
@@ -3578,7 +3564,7 @@
     </row>
     <row r="44" spans="1:22">
       <c r="A44" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>30</v>
@@ -3636,7 +3622,7 @@
     </row>
     <row r="45" spans="1:22">
       <c r="A45" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>30</v>
@@ -3690,7 +3676,7 @@
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>30</v>
@@ -3748,7 +3734,7 @@
     </row>
     <row r="47" spans="1:22">
       <c r="A47" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>31</v>
@@ -3798,7 +3784,7 @@
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>31</v>
@@ -3856,7 +3842,7 @@
     </row>
     <row r="49" spans="1:22">
       <c r="A49" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>31</v>
@@ -3914,7 +3900,7 @@
     </row>
     <row r="50" spans="1:22">
       <c r="A50" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>31</v>
@@ -3968,7 +3954,7 @@
     </row>
     <row r="51" spans="1:22">
       <c r="A51" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
@@ -3997,11 +3983,11 @@
       </c>
       <c r="Q51" s="7"/>
       <c r="R51" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S51" s="7"/>
       <c r="T51" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="U51" s="7" t="s">
         <v>187</v>
@@ -4009,52 +3995,50 @@
       <c r="V51" s="7"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B52" s="5" t="s">
+      <c r="A52" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K52" s="5" t="s">
+      <c r="K52" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L52" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M52" s="5" t="s">
+      <c r="L52" s="4"/>
+      <c r="M52" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V52" s="5" t="s">
+      <c r="V52" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>32</v>
@@ -4076,9 +4060,7 @@
         <v>186</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>32</v>
       </c>
@@ -4102,7 +4084,7 @@
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>32</v>
@@ -4130,9 +4112,7 @@
         <v>187</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>32</v>
       </c>
@@ -4162,7 +4142,7 @@
     </row>
     <row r="55" spans="1:22">
       <c r="A55" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>32</v>
@@ -4190,9 +4170,7 @@
       <c r="K55" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L55" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L55" s="4"/>
       <c r="M55" s="5" t="s">
         <v>32</v>
       </c>
@@ -4221,48 +4199,46 @@
       </c>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="B56" s="5" t="s">
+      <c r="A56" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O56" s="5"/>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5"/>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>33</v>
@@ -4284,9 +4260,7 @@
         <v>186</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4310,7 +4284,7 @@
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>33</v>
@@ -4338,9 +4312,7 @@
         <v>187</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4370,7 +4342,7 @@
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>33</v>
@@ -4398,9 +4370,7 @@
         <v>187</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>
@@ -4429,52 +4399,50 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B60" s="5" t="s">
+      <c r="A60" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K60" s="5" t="s">
+      <c r="K60" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="L60" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="L60" s="4"/>
+      <c r="M60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="V60" s="5" t="s">
+      <c r="V60" s="2" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>34</v>
@@ -4496,9 +4464,7 @@
         <v>186</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>34</v>
       </c>
@@ -4522,7 +4488,7 @@
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>34</v>
@@ -4550,9 +4516,7 @@
         <v>187</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>34</v>
       </c>
@@ -4581,56 +4545,54 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="B63" s="5" t="s">
+      <c r="A63" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K63" s="5"/>
-      <c r="L63" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M63" s="5" t="s">
+      <c r="K63" s="2"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N63" s="5" t="s">
+      <c r="N63" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="O63" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P63" s="5"/>
-      <c r="Q63" s="5" t="s">
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V63" s="5"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>35</v>
@@ -4658,9 +4620,7 @@
         <v>187</v>
       </c>
       <c r="K64" s="5"/>
-      <c r="L64" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>35</v>
       </c>
@@ -4690,7 +4650,7 @@
     </row>
     <row r="65" spans="1:22">
       <c r="A65" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>35</v>
@@ -4718,9 +4678,7 @@
       <c r="K65" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L65" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L65" s="4"/>
       <c r="M65" s="5" t="s">
         <v>35</v>
       </c>
@@ -4749,48 +4707,46 @@
       </c>
     </row>
     <row r="66" spans="1:22">
-      <c r="A66" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B66" s="5" t="s">
+      <c r="A66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5"/>
-      <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
-      <c r="J66" s="5" t="s">
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K66" s="5"/>
-      <c r="L66" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M66" s="5" t="s">
+      <c r="K66" s="2"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N66" s="5" t="s">
+      <c r="N66" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O66" s="5"/>
-      <c r="P66" s="5"/>
-      <c r="Q66" s="5"/>
-      <c r="R66" s="5"/>
-      <c r="S66" s="5"/>
-      <c r="T66" s="5"/>
-      <c r="U66" s="5" t="s">
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V66" s="5"/>
+      <c r="V66" s="2"/>
     </row>
     <row r="67" spans="1:22">
       <c r="A67" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>36</v>
@@ -4812,9 +4768,7 @@
         <v>186</v>
       </c>
       <c r="K67" s="5"/>
-      <c r="L67" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>36</v>
       </c>
@@ -4838,7 +4792,7 @@
     </row>
     <row r="68" spans="1:22">
       <c r="A68" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>36</v>
@@ -4866,9 +4820,7 @@
         <v>187</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>36</v>
       </c>
@@ -4898,7 +4850,7 @@
     </row>
     <row r="69" spans="1:22">
       <c r="A69" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B69" s="5" t="s">
         <v>36</v>
@@ -4926,9 +4878,7 @@
         <v>187</v>
       </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
         <v>36</v>
       </c>
@@ -4957,52 +4907,50 @@
       <c r="V69" s="5"/>
     </row>
     <row r="70" spans="1:22">
-      <c r="A70" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="B70" s="5" t="s">
+      <c r="A70" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D70" s="5"/>
-      <c r="E70" s="5"/>
-      <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
-      <c r="J70" s="5" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="K70" s="5" t="s">
+      <c r="K70" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L70" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M70" s="5" t="s">
+      <c r="L70" s="4"/>
+      <c r="M70" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N70" s="5" t="s">
+      <c r="N70" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O70" s="5"/>
-      <c r="P70" s="5"/>
-      <c r="Q70" s="5"/>
-      <c r="R70" s="5"/>
-      <c r="S70" s="5"/>
-      <c r="T70" s="5"/>
-      <c r="U70" s="5" t="s">
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="V70" s="5" t="s">
+      <c r="V70" s="2" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:22">
       <c r="A71" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B71" s="5" t="s">
         <v>37</v>
@@ -5024,9 +4972,7 @@
         <v>186</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>37</v>
       </c>
@@ -5050,7 +4996,7 @@
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>37</v>
@@ -5078,9 +5024,7 @@
         <v>187</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>37</v>
       </c>
@@ -5110,7 +5054,7 @@
     </row>
     <row r="73" spans="1:22">
       <c r="A73" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B73" s="5" t="s">
         <v>37</v>
@@ -5136,9 +5080,7 @@
         <v>187</v>
       </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>37</v>
       </c>
@@ -5166,7 +5108,7 @@
     </row>
     <row r="74" spans="1:22">
       <c r="A74" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>37</v>
@@ -5194,9 +5136,7 @@
         <v>187</v>
       </c>
       <c r="K74" s="5"/>
-      <c r="L74" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="5" t="s">
         <v>37</v>
       </c>
@@ -5226,7 +5166,7 @@
     </row>
     <row r="75" spans="1:22">
       <c r="A75" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B75" s="5" t="s">
         <v>37</v>
@@ -5252,9 +5192,7 @@
         <v>187</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>37</v>
       </c>
@@ -5281,56 +5219,54 @@
       <c r="V75" s="5"/>
     </row>
     <row r="76" spans="1:22">
-      <c r="A76" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B76" s="5" t="s">
+      <c r="A76" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5" t="s">
+      <c r="E76" s="2"/>
+      <c r="F76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5" t="s">
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M76" s="5" t="s">
+      <c r="K76" s="2"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N76" s="5" t="s">
+      <c r="N76" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O76" s="5" t="s">
+      <c r="O76" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5" t="s">
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5" t="s">
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V76" s="5"/>
+      <c r="V76" s="2"/>
     </row>
     <row r="77" spans="1:22">
       <c r="A77" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>35</v>
@@ -5358,9 +5294,7 @@
         <v>187</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>35</v>
       </c>
@@ -5390,7 +5324,7 @@
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>35</v>
@@ -5418,9 +5352,7 @@
       <c r="K78" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L78" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L78" s="4"/>
       <c r="M78" s="5" t="s">
         <v>35</v>
       </c>
@@ -5449,52 +5381,50 @@
       </c>
     </row>
     <row r="79" spans="1:22">
-      <c r="A79" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79" s="5" t="s">
+      <c r="A79" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B79" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
-      <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K79" s="5" t="s">
+      <c r="K79" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="L79" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M79" s="5" t="s">
+      <c r="L79" s="4"/>
+      <c r="M79" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N79" s="5" t="s">
+      <c r="N79" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O79" s="5"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="T79" s="5"/>
-      <c r="U79" s="5" t="s">
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="V79" s="5" t="s">
+      <c r="V79" s="2" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:22">
       <c r="A80" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>38</v>
@@ -5516,9 +5446,7 @@
         <v>186</v>
       </c>
       <c r="K80" s="5"/>
-      <c r="L80" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L80" s="4"/>
       <c r="M80" s="5" t="s">
         <v>38</v>
       </c>
@@ -5542,7 +5470,7 @@
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>38</v>
@@ -5570,9 +5498,7 @@
         <v>187</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>38</v>
       </c>
@@ -5602,7 +5528,7 @@
     </row>
     <row r="82" spans="1:22">
       <c r="A82" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>38</v>
@@ -5628,9 +5554,7 @@
         <v>187</v>
       </c>
       <c r="K82" s="5"/>
-      <c r="L82" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L82" s="4"/>
       <c r="M82" s="5" t="s">
         <v>38</v>
       </c>
@@ -5658,7 +5582,7 @@
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>38</v>
@@ -5686,9 +5610,7 @@
         <v>187</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>38</v>
       </c>
@@ -5718,7 +5640,7 @@
     </row>
     <row r="84" spans="1:22">
       <c r="A84" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>38</v>
@@ -5744,9 +5666,7 @@
         <v>187</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>38</v>
       </c>
@@ -5773,56 +5693,54 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B85" s="5" t="s">
+      <c r="A85" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5" t="s">
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>39</v>
@@ -5850,9 +5768,7 @@
         <v>187</v>
       </c>
       <c r="K86" s="5"/>
-      <c r="L86" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L86" s="4"/>
       <c r="M86" s="5" t="s">
         <v>39</v>
       </c>
@@ -5882,7 +5798,7 @@
     </row>
     <row r="87" spans="1:22">
       <c r="A87" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>39</v>
@@ -5910,9 +5826,7 @@
       <c r="K87" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="L87" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>39</v>
       </c>
@@ -5941,52 +5855,50 @@
       </c>
     </row>
     <row r="88" spans="1:22">
-      <c r="A88" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B88" s="5" t="s">
+      <c r="A88" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
+      <c r="C88" s="2"/>
+      <c r="D88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5" t="s">
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K88" s="5"/>
-      <c r="L88" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="M88" s="5" t="s">
+      <c r="K88" s="2"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5" t="s">
+      <c r="N88" s="2"/>
+      <c r="O88" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5" t="s">
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5" t="s">
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V88" s="5"/>
+      <c r="V88" s="2"/>
     </row>
     <row r="89" spans="1:22">
       <c r="A89" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>40</v>
@@ -6010,9 +5922,7 @@
         <v>187</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>40</v>
       </c>
@@ -6038,7 +5948,7 @@
     </row>
     <row r="90" spans="1:22">
       <c r="A90" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B90" s="5" t="s">
         <v>40</v>
@@ -6062,9 +5972,7 @@
         <v>187</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="8" t="s">
-        <v>206</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>40</v>
       </c>

--- a/data/output/FV2410_FV2404/UTILMD/55010.xlsx
+++ b/data/output/FV2410_FV2404/UTILMD/55010.xlsx
@@ -1441,7 +1441,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2151,7 +2151,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3341,7 +3341,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3759,7 +3759,7 @@
         <v>200</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4017,7 +4017,7 @@
         <v>201</v>
       </c>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4421,7 +4421,7 @@
         <v>201</v>
       </c>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4569,7 +4569,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -4727,7 +4727,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -4929,7 +4929,7 @@
         <v>203</v>
       </c>
       <c r="L70" s="4"/>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N70" s="2" t="s">
@@ -5243,7 +5243,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5403,7 +5403,7 @@
         <v>204</v>
       </c>
       <c r="L79" s="4"/>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N79" s="2" t="s">
@@ -5717,7 +5717,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="K88" s="2"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N88" s="2"/>
